--- a/static/documentos/ESCUELATIC DOCENTES INNOVADORES 2017.xlsx
+++ b/static/documentos/ESCUELATIC DOCENTES INNOVADORES 2017.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18625"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
   <si>
     <t>NOMBRES DEL DOCENTE</t>
   </si>
@@ -148,6 +148,21 @@
   </si>
   <si>
     <t>NUMERO DE CEDULA DEL FORMADOR</t>
+  </si>
+  <si>
+    <t>PRESENCIAL</t>
+  </si>
+  <si>
+    <t>ASISTENCIA 1</t>
+  </si>
+  <si>
+    <t>ASISTENCIA 2</t>
+  </si>
+  <si>
+    <t>ASISTENCIA 3</t>
+  </si>
+  <si>
+    <t>ASISTENCIA 4</t>
   </si>
 </sst>
 </file>
@@ -329,7 +344,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -366,11 +381,26 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -440,7 +470,7 @@
     <xf numFmtId="167" fontId="8" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -456,21 +486,6 @@
     <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -501,6 +516,28 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="3" xfId="25" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="56">
@@ -660,6 +697,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -695,6 +749,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -871,196 +942,216 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AK5"/>
+  <dimension ref="A1:AO5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S5" sqref="S5"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="15"/>
-    <col min="2" max="2" width="11.42578125" style="16"/>
-    <col min="3" max="7" width="11.42578125" style="17"/>
-    <col min="8" max="8" width="11.42578125" style="18"/>
-    <col min="9" max="10" width="11.42578125" style="17"/>
-    <col min="11" max="11" width="11.42578125" style="18"/>
-    <col min="12" max="13" width="11.42578125" style="19"/>
-    <col min="15" max="16" width="11.42578125" style="20"/>
+    <col min="1" max="1" width="11.42578125" style="10"/>
+    <col min="2" max="2" width="11.42578125" style="11"/>
+    <col min="3" max="7" width="11.42578125" style="12"/>
+    <col min="8" max="8" width="11.42578125" style="13"/>
+    <col min="9" max="10" width="11.42578125" style="12"/>
+    <col min="11" max="11" width="11.42578125" style="13"/>
+    <col min="12" max="13" width="11.42578125" style="14"/>
+    <col min="15" max="16" width="11.42578125" style="15"/>
     <col min="20" max="20" width="11.42578125" customWidth="1"/>
     <col min="22" max="22" width="11.42578125" customWidth="1"/>
     <col min="31" max="31" width="18.28515625" customWidth="1"/>
+    <col min="33" max="33" width="13.5703125" customWidth="1"/>
+    <col min="34" max="36" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="15" customHeight="1">
-      <c r="Q1" s="9" t="s">
+    <row r="1" spans="1:41" ht="15" customHeight="1">
+      <c r="Q1" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9"/>
-      <c r="T1" s="9"/>
-      <c r="U1" s="5" t="s">
+      <c r="R1" s="16"/>
+      <c r="S1" s="16"/>
+      <c r="T1" s="16"/>
+      <c r="U1" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="V1" s="5"/>
-      <c r="W1" s="5"/>
-      <c r="X1" s="5"/>
-      <c r="Y1" s="6" t="s">
+      <c r="V1" s="17"/>
+      <c r="W1" s="17"/>
+      <c r="X1" s="17"/>
+      <c r="Y1" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="Z1" s="6"/>
-      <c r="AA1" s="6"/>
-      <c r="AB1" s="6"/>
-      <c r="AC1" s="7" t="s">
+      <c r="Z1" s="20"/>
+      <c r="AA1" s="20"/>
+      <c r="AB1" s="20"/>
+      <c r="AC1" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" s="7"/>
-      <c r="AE1" s="7"/>
-      <c r="AF1" s="5" t="s">
+      <c r="AD1" s="21"/>
+      <c r="AE1" s="21"/>
+      <c r="AF1" s="22" t="s">
         <v>28</v>
       </c>
+      <c r="AG1" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH1" s="22"/>
+      <c r="AI1" s="22"/>
+      <c r="AJ1" s="22"/>
     </row>
-    <row r="2" spans="1:37" ht="52.5" customHeight="1">
+    <row r="2" spans="1:41" ht="52.5" customHeight="1">
       <c r="A2"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="9"/>
-      <c r="S2" s="9"/>
-      <c r="T2" s="9"/>
-      <c r="U2" s="5"/>
-      <c r="V2" s="5"/>
-      <c r="W2" s="5"/>
-      <c r="X2" s="5"/>
-      <c r="Y2" s="6"/>
-      <c r="Z2" s="6"/>
-      <c r="AA2" s="6"/>
-      <c r="AB2" s="6"/>
-      <c r="AC2" s="7"/>
-      <c r="AD2" s="7"/>
-      <c r="AE2" s="7"/>
-      <c r="AF2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="16"/>
+      <c r="S2" s="16"/>
+      <c r="T2" s="16"/>
+      <c r="U2" s="17"/>
+      <c r="V2" s="17"/>
+      <c r="W2" s="17"/>
+      <c r="X2" s="17"/>
+      <c r="Y2" s="20"/>
+      <c r="Z2" s="20"/>
+      <c r="AA2" s="20"/>
+      <c r="AB2" s="20"/>
+      <c r="AC2" s="21"/>
+      <c r="AD2" s="21"/>
+      <c r="AE2" s="21"/>
+      <c r="AF2" s="22"/>
+      <c r="AG2" s="22"/>
+      <c r="AH2" s="22"/>
+      <c r="AI2" s="22"/>
+      <c r="AJ2" s="22"/>
     </row>
-    <row r="3" spans="1:37" ht="32.25" customHeight="1">
+    <row r="3" spans="1:41" ht="32.25" customHeight="1">
       <c r="A3"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="9"/>
-      <c r="R3" s="9"/>
-      <c r="S3" s="9"/>
-      <c r="T3" s="9"/>
-      <c r="U3" s="5"/>
-      <c r="V3" s="5"/>
-      <c r="W3" s="5"/>
-      <c r="X3" s="5"/>
-      <c r="Y3" s="6"/>
-      <c r="Z3" s="6"/>
-      <c r="AA3" s="6"/>
-      <c r="AB3" s="6"/>
-      <c r="AC3" s="7"/>
-      <c r="AD3" s="7"/>
-      <c r="AE3" s="7"/>
-      <c r="AF3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="16"/>
+      <c r="S3" s="16"/>
+      <c r="T3" s="16"/>
+      <c r="U3" s="17"/>
+      <c r="V3" s="17"/>
+      <c r="W3" s="17"/>
+      <c r="X3" s="17"/>
+      <c r="Y3" s="20"/>
+      <c r="Z3" s="20"/>
+      <c r="AA3" s="20"/>
+      <c r="AB3" s="20"/>
+      <c r="AC3" s="21"/>
+      <c r="AD3" s="21"/>
+      <c r="AE3" s="21"/>
+      <c r="AF3" s="22"/>
+      <c r="AG3" s="22"/>
+      <c r="AH3" s="22"/>
+      <c r="AI3" s="22"/>
+      <c r="AJ3" s="22"/>
     </row>
-    <row r="4" spans="1:37" ht="25.5" customHeight="1">
+    <row r="4" spans="1:41" ht="25.5" customHeight="1">
       <c r="A4"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="11"/>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="9"/>
-      <c r="R4" s="9"/>
-      <c r="S4" s="9"/>
-      <c r="T4" s="9"/>
-      <c r="U4" s="5"/>
-      <c r="V4" s="5"/>
-      <c r="W4" s="5"/>
-      <c r="X4" s="5"/>
-      <c r="Y4" s="6"/>
-      <c r="Z4" s="6"/>
-      <c r="AA4" s="6"/>
-      <c r="AB4" s="6"/>
-      <c r="AC4" s="7"/>
-      <c r="AD4" s="7"/>
-      <c r="AE4" s="7"/>
-      <c r="AF4" s="8"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="16"/>
+      <c r="R4" s="16"/>
+      <c r="S4" s="16"/>
+      <c r="T4" s="16"/>
+      <c r="U4" s="17"/>
+      <c r="V4" s="17"/>
+      <c r="W4" s="17"/>
+      <c r="X4" s="17"/>
+      <c r="Y4" s="20"/>
+      <c r="Z4" s="20"/>
+      <c r="AA4" s="20"/>
+      <c r="AB4" s="20"/>
+      <c r="AC4" s="21"/>
+      <c r="AD4" s="21"/>
+      <c r="AE4" s="21"/>
+      <c r="AF4" s="22"/>
+      <c r="AG4" s="22"/>
+      <c r="AH4" s="22"/>
+      <c r="AI4" s="22"/>
+      <c r="AJ4" s="22"/>
     </row>
-    <row r="5" spans="1:37" ht="48.75" customHeight="1">
-      <c r="A5" s="12" t="s">
+    <row r="5" spans="1:41" ht="48.75" customHeight="1">
+      <c r="A5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="7" t="s">
         <v>29</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="G5" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="H5" s="13" t="s">
+      <c r="H5" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="I5" s="13" t="s">
+      <c r="I5" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="J5" s="13" t="s">
+      <c r="J5" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="K5" s="12" t="s">
+      <c r="K5" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="L5" s="12" t="s">
+      <c r="L5" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="M5" s="12" t="s">
+      <c r="M5" s="7" t="s">
         <v>40</v>
       </c>
       <c r="N5" s="3" t="s">
@@ -1096,48 +1187,61 @@
       <c r="X5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Y5" s="2" t="s">
+      <c r="Y5" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="Z5" s="2" t="s">
+      <c r="Z5" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="AA5" s="2" t="s">
+      <c r="AA5" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="AB5" s="3" t="s">
+      <c r="AB5" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="AC5" s="2" t="s">
+      <c r="AC5" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="AD5" s="3" t="s">
+      <c r="AD5" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="AE5" s="3" t="s">
+      <c r="AE5" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="AF5" s="3" t="s">
+      <c r="AF5" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="AG5" s="4" t="s">
+      <c r="AG5" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="AH5" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI5" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="AJ5" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="AH5" s="4" t="s">
+      <c r="AL5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="AI5" s="4" t="s">
+      <c r="AM5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="AJ5" s="3" t="s">
+      <c r="AN5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="AK5" s="1" t="s">
+      <c r="AO5" s="1" t="s">
         <v>23</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="AG1:AJ4"/>
     <mergeCell ref="Q1:T4"/>
     <mergeCell ref="U1:X4"/>
     <mergeCell ref="Y1:AB4"/>
